--- a/Daily Meetings Mis a jour.xlsx
+++ b/Daily Meetings Mis a jour.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tarek\Documents\GitHub\Daily_Meentings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="94">
   <si>
     <t>Mardi 11-02-2014</t>
   </si>
@@ -235,6 +240,72 @@
   </si>
   <si>
     <t>Crud Album (Rechercher Album)    Java</t>
+  </si>
+  <si>
+    <t>Proposition de différents idées pour le LOGO</t>
+  </si>
+  <si>
+    <t>Des idées pour le LOGO</t>
+  </si>
+  <si>
+    <t>Choix du LOGO</t>
+  </si>
+  <si>
+    <t>Implémentation du LOGO sur Illustrator</t>
+  </si>
+  <si>
+    <t>DAO Video</t>
+  </si>
+  <si>
+    <t>Requetes SQL</t>
+  </si>
+  <si>
+    <t>Jframe Videos</t>
+  </si>
+  <si>
+    <t>Jframe Video</t>
+  </si>
+  <si>
+    <t>Ajouter Videos</t>
+  </si>
+  <si>
+    <t>Utilisation de la classe "File"</t>
+  </si>
+  <si>
+    <t>Modifier Video</t>
+  </si>
+  <si>
+    <t>Utiliser le même bouton pour deux actions différentes</t>
+  </si>
+  <si>
+    <t>Modifier et Supprimer Video</t>
+  </si>
+  <si>
+    <t>Modifier le nom du fichier correspendant a la video qui a subis les modifications</t>
+  </si>
+  <si>
+    <t>Supprimer le fichier .MP4 de la video</t>
+  </si>
+  <si>
+    <t>Supprimer Vdieo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplir le Jtable depuis la base de donnée </t>
+  </si>
+  <si>
+    <t>Rechercher Video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selectionner la video corréspendante </t>
+  </si>
+  <si>
+    <t>Lire Video</t>
+  </si>
+  <si>
+    <t>Executer la commande CMD dans NetBeans</t>
+  </si>
+  <si>
+    <t>Amélioration du Jframe</t>
   </si>
 </sst>
 </file>
@@ -551,7 +622,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -575,215 +646,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,28 +736,203 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1096,7 +1212,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1106,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70:J70"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72:G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,1840 +1236,2143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18" t="s">
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="35" t="s">
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="9" t="s">
+      <c r="I8" s="63"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="74"/>
     </row>
     <row r="10" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29" t="s">
+      <c r="E10" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="11" t="s">
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="80"/>
     </row>
     <row r="11" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29" t="s">
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="11" t="s">
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
+    </row>
+    <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="14"/>
+      <c r="E12" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="73"/>
+      <c r="M13" s="74"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="74"/>
     </row>
     <row r="15" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="s">
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="38" t="s">
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
     </row>
     <row r="16" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="63"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14"/>
+      <c r="E17" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="73"/>
+      <c r="M17" s="74"/>
     </row>
     <row r="18" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="29" t="s">
+      <c r="E18" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="11" t="s">
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="80"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="74"/>
     </row>
     <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="38" t="s">
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="80"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44" t="s">
+      <c r="E21" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="39" t="s">
+      <c r="I21" s="89"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="92"/>
+    </row>
+    <row r="22" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="14"/>
+      <c r="E22" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="79"/>
+      <c r="M22" s="80"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="14"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="73"/>
+      <c r="M23" s="74"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="74"/>
     </row>
     <row r="25" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="63"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
+    </row>
+    <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="83"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
+      <c r="E27" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="68"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="79"/>
+      <c r="M27" s="80"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="84"/>
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="14"/>
+      <c r="E28" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="71"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="73"/>
+      <c r="M28" s="74"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="14"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="74"/>
     </row>
     <row r="30" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
+      <c r="E30" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="76"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="63"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="65"/>
+      <c r="M30" s="66"/>
     </row>
     <row r="31" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="9" t="s">
+      <c r="E31" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="66"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="14"/>
+      <c r="E32" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="68"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" s="71"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" s="73"/>
+      <c r="M32" s="74"/>
     </row>
     <row r="33" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="29" t="s">
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="9" t="s">
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="66"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="14"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="74"/>
     </row>
     <row r="35" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="29" t="s">
+      <c r="E35" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="9" t="s">
+      <c r="I35" s="60"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="66"/>
     </row>
     <row r="36" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="35" t="s">
+      <c r="E36" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="76"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="11" t="s">
+      <c r="I36" s="63"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="80"/>
+    </row>
+    <row r="37" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="83"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="14"/>
+      <c r="E37" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="I37" s="60"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="L37" s="79"/>
+      <c r="M37" s="80"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="60"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="10"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="66"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="14"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="74"/>
     </row>
     <row r="40" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29" t="s">
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="38" t="s">
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="12"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="80"/>
     </row>
     <row r="41" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29" t="s">
+      <c r="F41" s="76"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="11" t="s">
+      <c r="I41" s="60"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="12"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="80"/>
+    </row>
+    <row r="42" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="61"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="48"/>
+      <c r="E42" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="95"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="60"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" s="97"/>
+      <c r="M42" s="98"/>
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="60"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="65"/>
-      <c r="M43" s="66"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="47"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="66"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47"/>
     </row>
     <row r="45" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="57" t="s">
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="I45" s="58"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="68"/>
-      <c r="M45" s="69"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="38"/>
+      <c r="M45" s="39"/>
     </row>
     <row r="46" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="51"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="58"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="65"/>
-      <c r="M46" s="66"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="29"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="47"/>
+    </row>
+    <row r="47" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="66"/>
+      <c r="E47" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" s="29"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="38"/>
+      <c r="M47" s="39"/>
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="60"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="66"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="65"/>
-      <c r="M49" s="66"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="47"/>
     </row>
     <row r="50" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="F50" s="51"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="71"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="74"/>
-      <c r="M50" s="75"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="35"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="23"/>
+      <c r="M50" s="24"/>
     </row>
     <row r="51" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="51"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="66"/>
+      <c r="E51" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="47"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="66"/>
+      <c r="E52" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="35"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="23"/>
+      <c r="M52" s="24"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="60"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="76"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="60"/>
-      <c r="B54" s="60"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="81"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
     </row>
     <row r="55" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="92"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="57" t="s">
+      <c r="E55" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="43"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I55" s="58"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" s="68"/>
-      <c r="M55" s="69"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="38"/>
+      <c r="M55" s="39"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="60"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
+      <c r="E57" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="I57" s="101"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="102"/>
+      <c r="M57" s="102"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="60"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="76"/>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="81"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="81"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="81"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="88" t="s">
+      <c r="E60" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="89"/>
-      <c r="G60" s="90"/>
-      <c r="H60" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" s="58"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="68"/>
-      <c r="M60" s="69"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="29"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="38"/>
+      <c r="M60" s="39"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="76"/>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="80"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="81"/>
-      <c r="M62" s="81"/>
+      <c r="E62" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
+      <c r="K62" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="L62" s="105"/>
+      <c r="M62" s="105"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="60" t="s">
+      <c r="A63" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="60"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="76"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
-      <c r="M63" s="81"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
-      <c r="B64" s="60"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="76"/>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="80"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="81"/>
-      <c r="L64" s="81"/>
-      <c r="M64" s="81"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="95"/>
-      <c r="G65" s="96"/>
-      <c r="H65" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" s="71"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" s="74"/>
-      <c r="M65" s="75"/>
+      <c r="E65" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="35"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="23"/>
+      <c r="M65" s="24"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="60"/>
-      <c r="B66" s="60"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="81"/>
-      <c r="L66" s="81"/>
-      <c r="M66" s="81"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="76"/>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="80"/>
-      <c r="J67" s="80"/>
-      <c r="K67" s="81"/>
-      <c r="L67" s="81"/>
-      <c r="M67" s="81"/>
+      <c r="E67" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="106"/>
+      <c r="J67" s="106"/>
+      <c r="K67" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="107"/>
+      <c r="M67" s="107"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="60"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="81"/>
-      <c r="L68" s="81"/>
-      <c r="M68" s="81"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
-      <c r="B69" s="60"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="76"/>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="81"/>
-      <c r="L69" s="81"/>
-      <c r="M69" s="81"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
     </row>
     <row r="70" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="97"/>
-      <c r="G70" s="98"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="81"/>
-      <c r="L70" s="81"/>
-      <c r="M70" s="81"/>
+      <c r="E70" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="26"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="76"/>
-      <c r="F71" s="76"/>
-      <c r="G71" s="76"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="81"/>
-      <c r="M71" s="81"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+    </row>
+    <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="76"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
-      <c r="K72" s="81"/>
-      <c r="L72" s="81"/>
-      <c r="M72" s="81"/>
+      <c r="E72" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="113"/>
+      <c r="G72" s="113"/>
+      <c r="H72" s="108" t="s">
+        <v>91</v>
+      </c>
+      <c r="I72" s="108"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="109" t="s">
+        <v>92</v>
+      </c>
+      <c r="L72" s="109"/>
+      <c r="M72" s="109"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="60" t="s">
+      <c r="A73" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="60"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="80"/>
-      <c r="J73" s="80"/>
-      <c r="K73" s="81"/>
-      <c r="L73" s="81"/>
-      <c r="M73" s="81"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="81"/>
-      <c r="M74" s="81"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="77"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="79"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
-      <c r="K75" s="81"/>
-      <c r="L75" s="81"/>
-      <c r="M75" s="81"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="60"/>
-      <c r="B76" s="60"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
-      <c r="K76" s="81"/>
-      <c r="L76" s="81"/>
-      <c r="M76" s="81"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
-      <c r="B77" s="60"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="76"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="80"/>
-      <c r="I77" s="80"/>
-      <c r="J77" s="80"/>
-      <c r="K77" s="81"/>
-      <c r="L77" s="81"/>
-      <c r="M77" s="81"/>
+      <c r="E77" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="106"/>
+      <c r="J77" s="106"/>
+      <c r="K77" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="107"/>
+      <c r="M77" s="107"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="60" t="s">
+      <c r="A78" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="60"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="80"/>
-      <c r="K78" s="81"/>
-      <c r="L78" s="81"/>
-      <c r="M78" s="81"/>
+      <c r="E78" s="103"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="103"/>
+      <c r="H78" s="106"/>
+      <c r="I78" s="106"/>
+      <c r="J78" s="106"/>
+      <c r="K78" s="107"/>
+      <c r="L78" s="107"/>
+      <c r="M78" s="107"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="60"/>
-      <c r="B79" s="60"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="76"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="76"/>
-      <c r="H79" s="80"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="80"/>
-      <c r="K79" s="81"/>
-      <c r="L79" s="81"/>
-      <c r="M79" s="81"/>
+      <c r="E79" s="103"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="103"/>
+      <c r="H79" s="106"/>
+      <c r="I79" s="106"/>
+      <c r="J79" s="106"/>
+      <c r="K79" s="107"/>
+      <c r="L79" s="107"/>
+      <c r="M79" s="107"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="60"/>
-      <c r="B80" s="60"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="77"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="79"/>
-      <c r="H80" s="80"/>
-      <c r="I80" s="80"/>
-      <c r="J80" s="80"/>
-      <c r="K80" s="81"/>
-      <c r="L80" s="81"/>
-      <c r="M80" s="81"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="111"/>
+      <c r="G80" s="112"/>
+      <c r="H80" s="106"/>
+      <c r="I80" s="106"/>
+      <c r="J80" s="106"/>
+      <c r="K80" s="107"/>
+      <c r="L80" s="107"/>
+      <c r="M80" s="107"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="60"/>
-      <c r="B81" s="60"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="80"/>
-      <c r="I81" s="80"/>
-      <c r="J81" s="80"/>
-      <c r="K81" s="81"/>
-      <c r="L81" s="81"/>
-      <c r="M81" s="81"/>
+      <c r="E81" s="103"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="103"/>
+      <c r="H81" s="106"/>
+      <c r="I81" s="106"/>
+      <c r="J81" s="106"/>
+      <c r="K81" s="107"/>
+      <c r="L81" s="107"/>
+      <c r="M81" s="107"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="60"/>
-      <c r="B82" s="60"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="80"/>
-      <c r="I82" s="80"/>
-      <c r="J82" s="80"/>
-      <c r="K82" s="81"/>
-      <c r="L82" s="81"/>
-      <c r="M82" s="81"/>
+      <c r="E82" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="103"/>
+      <c r="G82" s="103"/>
+      <c r="H82" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="I82" s="106"/>
+      <c r="J82" s="106"/>
+      <c r="K82" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="107"/>
+      <c r="M82" s="107"/>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="82" t="s">
+      <c r="A83" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B83" s="83"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="80"/>
-      <c r="I83" s="80"/>
-      <c r="J83" s="80"/>
-      <c r="K83" s="81"/>
-      <c r="L83" s="81"/>
-      <c r="M83" s="81"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="84"/>
-      <c r="B84" s="85"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="76"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="76"/>
-      <c r="H84" s="80"/>
-      <c r="I84" s="80"/>
-      <c r="J84" s="80"/>
-      <c r="K84" s="81"/>
-      <c r="L84" s="81"/>
-      <c r="M84" s="81"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="84"/>
-      <c r="B85" s="85"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="77"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="79"/>
-      <c r="H85" s="80"/>
-      <c r="I85" s="80"/>
-      <c r="J85" s="80"/>
-      <c r="K85" s="81"/>
-      <c r="L85" s="81"/>
-      <c r="M85" s="81"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="84"/>
-      <c r="B86" s="85"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="76"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="76"/>
-      <c r="H86" s="80"/>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80"/>
-      <c r="K86" s="81"/>
-      <c r="L86" s="81"/>
-      <c r="M86" s="81"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="86"/>
-      <c r="B87" s="87"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="76"/>
-      <c r="H87" s="80"/>
-      <c r="I87" s="80"/>
-      <c r="J87" s="80"/>
-      <c r="K87" s="81"/>
-      <c r="L87" s="81"/>
-      <c r="M87" s="81"/>
+      <c r="E87" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="103"/>
+      <c r="G87" s="103"/>
+      <c r="H87" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="106"/>
+      <c r="J87" s="106"/>
+      <c r="K87" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="107"/>
+      <c r="M87" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="263">
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="A83:B87"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="B1:K4"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="A33:B37"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="A28:B32"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A23:B27"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="A18:B22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A13:B17"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="H5:J7"/>
+    <mergeCell ref="K5:M7"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A8:B12"/>
+    <mergeCell ref="A38:B42"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="A43:B47"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="A48:B52"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="A58:B62"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="A53:B57"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="A63:B67"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="A68:B72"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
     <mergeCell ref="K73:M73"/>
     <mergeCell ref="K74:M74"/>
     <mergeCell ref="K75:M75"/>
@@ -2978,229 +3397,22 @@
     <mergeCell ref="A73:B77"/>
     <mergeCell ref="E73:G73"/>
     <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="A68:B72"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="A63:B67"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="A58:B62"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="A53:B57"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="A48:B52"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="A43:B47"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="A38:B42"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E5:G7"/>
-    <mergeCell ref="H5:J7"/>
-    <mergeCell ref="K5:M7"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="A8:B12"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A13:B17"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="A18:B22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A23:B27"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="B1:K4"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="A33:B37"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="A28:B32"/>
-    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="A83:B87"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Daily Meetings Mis a jour.xlsx
+++ b/Daily Meetings Mis a jour.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khalil\Documents\GitHub\Daily_Meentings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23980" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23985" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="123">
   <si>
     <t>Mardi 11-02-2014</t>
   </si>
@@ -126,9 +131,6 @@
     <t>Création de la Base de Données MySQL</t>
   </si>
   <si>
-    <t>Connexions à Partir des Pages PHP</t>
-  </si>
-  <si>
     <t>Design du Site</t>
   </si>
   <si>
@@ -150,15 +152,6 @@
     <t>Design du site</t>
   </si>
   <si>
-    <t>Classe interaction base de données (DAO)</t>
-  </si>
-  <si>
-    <t>DAO</t>
-  </si>
-  <si>
-    <t>les requêtes SQL(modification, suppression)</t>
-  </si>
-  <si>
     <t>CRUDE Commentaires -  JAVA Web Application</t>
   </si>
   <si>
@@ -361,6 +354,48 @@
   </si>
   <si>
     <t>chercher adhérant</t>
+  </si>
+  <si>
+    <t>Classe interaction base de données (DAO Comm)</t>
+  </si>
+  <si>
+    <t>les requêtes SQL (suppression)</t>
+  </si>
+  <si>
+    <t>DAO Commentaires</t>
+  </si>
+  <si>
+    <t>Aucun</t>
+  </si>
+  <si>
+    <t>Supprimer Commentaire</t>
+  </si>
+  <si>
+    <t>Afficher Tableau de commentaires</t>
+  </si>
+  <si>
+    <t>Affichage des commentaires</t>
+  </si>
+  <si>
+    <t>CRUD - Evenements - JAVA Web Application</t>
+  </si>
+  <si>
+    <t>DAO - Evenements</t>
+  </si>
+  <si>
+    <t>Ajouter, Supprimer Evenement</t>
+  </si>
+  <si>
+    <t>Requêtes SQL</t>
+  </si>
+  <si>
+    <t>Interface d'ajout et de modification d'évenement (JFRAME)</t>
+  </si>
+  <si>
+    <t>Maitrise des fonctionnalités de la JFRAME</t>
+  </si>
+  <si>
+    <t>Modifier, Rechercher, Afficher Evenement</t>
   </si>
 </sst>
 </file>
@@ -677,7 +712,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -870,19 +905,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -912,6 +934,40 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -921,57 +977,36 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -988,6 +1023,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -997,7 +1071,7 @@
     <cellStyle name="Accent6" xfId="5" builtinId="49"/>
     <cellStyle name="Entrée" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Titre 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Titre 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1267,7 +1341,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1278,21 +1352,21 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75:G75"/>
+      <selection activeCell="E68" sqref="E68:G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1304,7 +1378,7 @@
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -1316,7 +1390,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -1328,7 +1402,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -1340,7 +1414,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
@@ -1367,7 +1441,7 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" ht="16" thickTop="1" thickBot="1">
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1382,7 +1456,7 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
     </row>
-    <row r="7" spans="1:13" ht="16" thickTop="1" thickBot="1">
+    <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
@@ -1397,7 +1471,7 @@
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
     </row>
-    <row r="8" spans="1:13" ht="27.75" customHeight="1" thickTop="1">
+    <row r="8" spans="1:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>0</v>
       </c>
@@ -1414,17 +1488,17 @@
       <c r="F8" s="27"/>
       <c r="G8" s="28"/>
       <c r="H8" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="37"/>
       <c r="K8" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="3" t="s">
@@ -1434,22 +1508,22 @@
         <v>7</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
       <c r="H9" s="32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="34"/>
       <c r="K9" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" ht="57.75" customHeight="1">
+    <row r="10" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="3" t="s">
@@ -1464,17 +1538,17 @@
       <c r="F10" s="27"/>
       <c r="G10" s="28"/>
       <c r="H10" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="31"/>
       <c r="K10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="77.25" customHeight="1">
+    <row r="11" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
@@ -1499,7 +1573,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="48" customHeight="1">
+    <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
@@ -1514,7 +1588,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="31"/>
@@ -1524,7 +1598,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>18</v>
       </c>
@@ -1535,23 +1609,23 @@
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="E13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="3" t="s">
@@ -1561,22 +1635,22 @@
         <v>7</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
       <c r="H14" s="32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="34"/>
       <c r="K14" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" ht="57" customHeight="1">
+    <row r="15" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="3" t="s">
@@ -1586,22 +1660,22 @@
         <v>20</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="28"/>
       <c r="H15" s="29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
       <c r="K15" s="38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L15" s="11"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="75" customHeight="1">
+    <row r="16" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="3" t="s">
@@ -1626,7 +1700,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="3" t="s">
@@ -1636,12 +1710,12 @@
         <v>6</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
       <c r="H17" s="32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
@@ -1651,7 +1725,7 @@
       <c r="L17" s="14"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" ht="41.25" customHeight="1">
+    <row r="18" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>23</v>
       </c>
@@ -1668,17 +1742,17 @@
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="H18" s="29" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="31"/>
       <c r="K18" s="11" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="L18" s="11"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="3" t="s">
@@ -1688,22 +1762,22 @@
         <v>7</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
       <c r="H19" s="32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I19" s="33"/>
       <c r="J19" s="34"/>
       <c r="K19" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L19" s="14"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" ht="42" customHeight="1">
+    <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="3" t="s">
@@ -1713,22 +1787,22 @@
         <v>20</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
       <c r="H20" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="31"/>
       <c r="K20" s="38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" ht="33.75" customHeight="1">
+    <row r="21" spans="1:13" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="5" t="s">
@@ -1753,7 +1827,7 @@
       <c r="L21" s="39"/>
       <c r="M21" s="40"/>
     </row>
-    <row r="22" spans="1:13" ht="48.75" customHeight="1">
+    <row r="22" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="3" t="s">
@@ -1763,22 +1837,22 @@
         <v>6</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="28"/>
       <c r="H22" s="29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="31"/>
       <c r="K22" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
@@ -1789,11 +1863,11 @@
       <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="E23" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="32" t="s">
         <v>22</v>
       </c>
@@ -1805,7 +1879,7 @@
       <c r="L23" s="14"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="3" t="s">
@@ -1815,22 +1889,22 @@
         <v>7</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
       <c r="H24" s="32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I24" s="33"/>
       <c r="J24" s="34"/>
       <c r="K24" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L24" s="14"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" ht="32.25" customHeight="1">
+    <row r="25" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="17"/>
       <c r="C25" s="3" t="s">
@@ -1840,7 +1914,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F25" s="27"/>
       <c r="G25" s="28"/>
@@ -1855,7 +1929,7 @@
       <c r="L25" s="9"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:13" ht="32.25" customHeight="1">
+    <row r="26" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="7" t="s">
@@ -1880,7 +1954,7 @@
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="33" customHeight="1">
+    <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
       <c r="C27" s="3" t="s">
@@ -1890,22 +1964,22 @@
         <v>6</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
       <c r="H27" s="32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
       <c r="K27" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>28</v>
       </c>
@@ -1932,7 +2006,7 @@
       <c r="L28" s="14"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="17"/>
       <c r="C29" s="3" t="s">
@@ -1942,22 +2016,22 @@
         <v>7</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
       <c r="H29" s="32" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I29" s="33"/>
       <c r="J29" s="34"/>
       <c r="K29" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13" ht="36" customHeight="1">
+    <row r="30" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="3" t="s">
@@ -1982,7 +2056,7 @@
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="1:13" ht="39.75" customHeight="1">
+    <row r="31" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="7" t="s">
@@ -2007,7 +2081,7 @@
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="3" t="s">
@@ -2017,22 +2091,22 @@
         <v>6</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
       <c r="H32" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I32" s="33"/>
       <c r="J32" s="34"/>
       <c r="K32" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L32" s="14"/>
       <c r="M32" s="15"/>
     </row>
-    <row r="33" spans="1:13" ht="38.25" customHeight="1">
+    <row r="33" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>30</v>
       </c>
@@ -2044,22 +2118,22 @@
         <v>10</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
       <c r="H33" s="29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="31"/>
       <c r="K33" s="9" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="10"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="3" t="s">
@@ -2069,22 +2143,22 @@
         <v>7</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="25"/>
       <c r="H34" s="32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I34" s="33"/>
       <c r="J34" s="34"/>
       <c r="K34" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L34" s="14"/>
       <c r="M34" s="15"/>
     </row>
-    <row r="35" spans="1:13" ht="47.25" customHeight="1">
+    <row r="35" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="C35" s="3" t="s">
@@ -2099,17 +2173,17 @@
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="31"/>
       <c r="K35" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="10"/>
     </row>
-    <row r="36" spans="1:13" ht="46.5" customHeight="1">
+    <row r="36" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="7" t="s">
@@ -2124,17 +2198,17 @@
       <c r="F36" s="27"/>
       <c r="G36" s="28"/>
       <c r="H36" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="37"/>
       <c r="K36" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L36" s="11"/>
       <c r="M36" s="12"/>
     </row>
-    <row r="37" spans="1:13" ht="28.5" customHeight="1">
+    <row r="37" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="C37" s="3" t="s">
@@ -2144,24 +2218,24 @@
         <v>6</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="28"/>
       <c r="H37" s="29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="31"/>
       <c r="K37" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L37" s="11"/>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B38" s="47"/>
       <c r="C38" s="3" t="s">
@@ -2170,17 +2244,23 @@
       <c r="D38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="20"/>
+      <c r="E38" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="F38" s="21"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="29"/>
+      <c r="H38" s="29" t="s">
+        <v>114</v>
+      </c>
       <c r="I38" s="30"/>
       <c r="J38" s="31"/>
-      <c r="K38" s="9"/>
+      <c r="K38" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="L38" s="9"/>
       <c r="M38" s="10"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="47"/>
       <c r="B39" s="47"/>
       <c r="C39" s="3" t="s">
@@ -2190,22 +2270,22 @@
         <v>7</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="25"/>
       <c r="H39" s="32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I39" s="33"/>
       <c r="J39" s="34"/>
       <c r="K39" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L39" s="14"/>
       <c r="M39" s="15"/>
     </row>
-    <row r="40" spans="1:13" ht="42.75" customHeight="1">
+    <row r="40" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47"/>
       <c r="B40" s="47"/>
       <c r="C40" s="3" t="s">
@@ -2215,22 +2295,22 @@
         <v>20</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="28"/>
       <c r="H40" s="29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="31"/>
       <c r="K40" s="38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" ht="67.5" customHeight="1">
+    <row r="41" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="47"/>
       <c r="B41" s="47"/>
       <c r="C41" s="7" t="s">
@@ -2240,22 +2320,22 @@
         <v>9</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="28"/>
       <c r="H41" s="29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="31"/>
       <c r="K41" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="12"/>
     </row>
-    <row r="42" spans="1:13" ht="54.75" customHeight="1">
+    <row r="42" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="47"/>
       <c r="B42" s="47"/>
       <c r="C42" s="3" t="s">
@@ -2265,24 +2345,24 @@
         <v>6</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F42" s="49"/>
       <c r="G42" s="50"/>
       <c r="H42" s="29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="31"/>
       <c r="K42" s="51" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L42" s="51"/>
       <c r="M42" s="52"/>
     </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1">
+    <row r="43" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="47" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B43" s="47"/>
       <c r="C43" s="3" t="s">
@@ -2291,17 +2371,23 @@
       <c r="D43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="77"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="E43" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="116"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="119"/>
+      <c r="M43" s="120"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="47"/>
       <c r="B44" s="47"/>
       <c r="C44" s="3" t="s">
@@ -2311,22 +2397,22 @@
         <v>7</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
       <c r="H44" s="58" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I44" s="59"/>
       <c r="J44" s="60"/>
-      <c r="K44" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="L44" s="76"/>
-      <c r="M44" s="77"/>
-    </row>
-    <row r="45" spans="1:13" ht="41.25" customHeight="1">
+      <c r="K44" s="70" t="s">
+        <v>103</v>
+      </c>
+      <c r="L44" s="71"/>
+      <c r="M44" s="72"/>
+    </row>
+    <row r="45" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="47"/>
       <c r="B45" s="47"/>
       <c r="C45" s="3" t="s">
@@ -2336,22 +2422,22 @@
         <v>20</v>
       </c>
       <c r="E45" s="54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F45" s="54"/>
       <c r="G45" s="54"/>
       <c r="H45" s="61" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I45" s="62"/>
       <c r="J45" s="63"/>
-      <c r="K45" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="79"/>
-      <c r="M45" s="80"/>
-    </row>
-    <row r="46" spans="1:13" ht="85.5" customHeight="1">
+      <c r="K45" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="74"/>
+      <c r="M45" s="75"/>
+    </row>
+    <row r="46" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47"/>
       <c r="B46" s="47"/>
       <c r="C46" s="7" t="s">
@@ -2361,7 +2447,7 @@
         <v>9</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F46" s="56"/>
       <c r="G46" s="57"/>
@@ -2370,11 +2456,11 @@
       </c>
       <c r="I46" s="62"/>
       <c r="J46" s="63"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="77"/>
-    </row>
-    <row r="47" spans="1:13" ht="33.75" customHeight="1">
+      <c r="K46" s="70"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="72"/>
+    </row>
+    <row r="47" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47"/>
       <c r="B47" s="47"/>
       <c r="C47" s="3" t="s">
@@ -2384,24 +2470,24 @@
         <v>6</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F47" s="54"/>
       <c r="G47" s="54"/>
       <c r="H47" s="61" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I47" s="62"/>
       <c r="J47" s="63"/>
-      <c r="K47" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" s="79"/>
-      <c r="M47" s="80"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1">
+      <c r="K47" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="74"/>
+      <c r="M47" s="75"/>
+    </row>
+    <row r="48" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B48" s="47"/>
       <c r="C48" s="3" t="s">
@@ -2410,17 +2496,23 @@
       <c r="D48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="77"/>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="E48" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="122"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="77"/>
+      <c r="M48" s="78"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
       <c r="B49" s="47"/>
       <c r="C49" s="3" t="s">
@@ -2430,22 +2522,22 @@
         <v>7</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F49" s="53"/>
       <c r="G49" s="53"/>
       <c r="H49" s="58" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I49" s="59"/>
       <c r="J49" s="60"/>
-      <c r="K49" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="L49" s="76"/>
-      <c r="M49" s="77"/>
-    </row>
-    <row r="50" spans="1:13" ht="51" customHeight="1">
+      <c r="K49" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="L49" s="71"/>
+      <c r="M49" s="72"/>
+    </row>
+    <row r="50" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="3" t="s">
@@ -2455,7 +2547,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F50" s="56"/>
       <c r="G50" s="57"/>
@@ -2464,13 +2556,13 @@
       </c>
       <c r="I50" s="66"/>
       <c r="J50" s="67"/>
-      <c r="K50" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="82"/>
-      <c r="M50" s="83"/>
-    </row>
-    <row r="51" spans="1:13" ht="37.5" customHeight="1">
+      <c r="K50" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="77"/>
+      <c r="M50" s="78"/>
+    </row>
+    <row r="51" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47"/>
       <c r="B51" s="47"/>
       <c r="C51" s="7" t="s">
@@ -2487,11 +2579,11 @@
       <c r="H51" s="58"/>
       <c r="I51" s="59"/>
       <c r="J51" s="60"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="77"/>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="K51" s="70"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="72"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="47"/>
       <c r="B52" s="47"/>
       <c r="C52" s="3" t="s">
@@ -2501,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="E52" s="64" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
@@ -2510,15 +2602,15 @@
       </c>
       <c r="I52" s="66"/>
       <c r="J52" s="67"/>
-      <c r="K52" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="L52" s="82"/>
-      <c r="M52" s="83"/>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="K52" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="77"/>
+      <c r="M52" s="78"/>
+    </row>
+    <row r="53" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B53" s="47"/>
       <c r="C53" s="3" t="s">
@@ -2527,17 +2619,23 @@
       <c r="D53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="E53" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="I53" s="124"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
       <c r="B54" s="47"/>
       <c r="C54" s="3" t="s">
@@ -2546,23 +2644,23 @@
       <c r="D54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
-      <c r="H54" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="I54" s="73"/>
-      <c r="J54" s="73"/>
-      <c r="K54" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-    </row>
-    <row r="55" spans="1:13" ht="57" customHeight="1">
+      <c r="E54" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+    </row>
+    <row r="55" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="47"/>
       <c r="B55" s="47"/>
       <c r="C55" s="3" t="s">
@@ -2571,23 +2669,23 @@
       <c r="D55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="70"/>
+      <c r="E55" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="84"/>
+      <c r="G55" s="85"/>
       <c r="H55" s="61" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I55" s="62"/>
       <c r="J55" s="63"/>
-      <c r="K55" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" s="79"/>
-      <c r="M55" s="80"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="K55" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="74"/>
+      <c r="M55" s="75"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="47"/>
       <c r="B56" s="47"/>
       <c r="C56" s="7" t="s">
@@ -2596,17 +2694,17 @@
       <c r="D56" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71"/>
-      <c r="H56" s="73"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="E56" s="86"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="47"/>
       <c r="B57" s="47"/>
       <c r="C57" s="3" t="s">
@@ -2615,25 +2713,25 @@
       <c r="D57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="E57" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="69"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
+    </row>
+    <row r="58" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B58" s="47"/>
       <c r="C58" s="3" t="s">
@@ -2642,17 +2740,23 @@
       <c r="D58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="73"/>
-      <c r="J58" s="73"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="E58" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="125" t="s">
+        <v>120</v>
+      </c>
+      <c r="I58" s="125"/>
+      <c r="J58" s="125"/>
+      <c r="K58" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="47"/>
       <c r="B59" s="47"/>
       <c r="C59" s="3" t="s">
@@ -2661,23 +2765,23 @@
       <c r="D59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71"/>
-      <c r="H59" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="I59" s="73"/>
-      <c r="J59" s="73"/>
-      <c r="K59" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-    </row>
-    <row r="60" spans="1:13" ht="37.5" customHeight="1">
+      <c r="E59" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+    </row>
+    <row r="60" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="47"/>
       <c r="B60" s="47"/>
       <c r="C60" s="3" t="s">
@@ -2686,23 +2790,23 @@
       <c r="D60" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="F60" s="87"/>
-      <c r="G60" s="88"/>
+      <c r="E60" s="93" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="94"/>
+      <c r="G60" s="95"/>
       <c r="H60" s="61" t="s">
         <v>22</v>
       </c>
       <c r="I60" s="62"/>
       <c r="J60" s="63"/>
-      <c r="K60" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="79"/>
-      <c r="M60" s="80"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="K60" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="74"/>
+      <c r="M60" s="75"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="47"/>
       <c r="B61" s="47"/>
       <c r="C61" s="7" t="s">
@@ -2711,17 +2815,17 @@
       <c r="D61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="E61" s="86"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="47"/>
       <c r="B62" s="47"/>
       <c r="C62" s="3" t="s">
@@ -2730,25 +2834,25 @@
       <c r="D62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="89"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="L62" s="91"/>
-      <c r="M62" s="91"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="E62" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="82"/>
+      <c r="J62" s="82"/>
+      <c r="K62" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+    </row>
+    <row r="63" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" s="47"/>
       <c r="C63" s="3" t="s">
@@ -2757,17 +2861,23 @@
       <c r="D63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="71"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="E63" s="126" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="125" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" s="125"/>
+      <c r="J63" s="125"/>
+      <c r="K63" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="L63" s="88"/>
+      <c r="M63" s="88"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="47"/>
       <c r="B64" s="47"/>
       <c r="C64" s="3" t="s">
@@ -2776,23 +2886,23 @@
       <c r="D64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="I64" s="73"/>
-      <c r="J64" s="73"/>
-      <c r="K64" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="E64" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="L64" s="79"/>
+      <c r="M64" s="79"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="47"/>
       <c r="B65" s="47"/>
       <c r="C65" s="3" t="s">
@@ -2801,23 +2911,23 @@
       <c r="D65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="93"/>
-      <c r="G65" s="94"/>
+      <c r="E65" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="90"/>
+      <c r="G65" s="91"/>
       <c r="H65" s="65" t="s">
         <v>22</v>
       </c>
       <c r="I65" s="66"/>
       <c r="J65" s="67"/>
-      <c r="K65" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" s="82"/>
-      <c r="M65" s="83"/>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="K65" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="77"/>
+      <c r="M65" s="78"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="47"/>
       <c r="B66" s="47"/>
       <c r="C66" s="7" t="s">
@@ -2826,17 +2936,17 @@
       <c r="D66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="68"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="47"/>
       <c r="B67" s="47"/>
       <c r="C67" s="3" t="s">
@@ -2845,25 +2955,25 @@
       <c r="D67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="95"/>
-      <c r="J67" s="95"/>
-      <c r="K67" s="103" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" s="103"/>
-      <c r="M67" s="103"/>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="E67" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="100"/>
+      <c r="M67" s="100"/>
+    </row>
+    <row r="68" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B68" s="47"/>
       <c r="C68" s="3" t="s">
@@ -2872,17 +2982,17 @@
       <c r="D68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="71"/>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="73"/>
-      <c r="I68" s="73"/>
-      <c r="J68" s="73"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
+      <c r="M68" s="79"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="47"/>
       <c r="B69" s="47"/>
       <c r="C69" s="3" t="s">
@@ -2891,23 +3001,23 @@
       <c r="D69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="I69" s="73"/>
-      <c r="J69" s="73"/>
-      <c r="K69" s="84" t="s">
-        <v>96</v>
-      </c>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-    </row>
-    <row r="70" spans="1:13" ht="48" customHeight="1">
+      <c r="E69" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+    </row>
+    <row r="70" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="47"/>
       <c r="B70" s="47"/>
       <c r="C70" s="3" t="s">
@@ -2916,7 +3026,7 @@
       <c r="D70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="68" t="s">
+      <c r="E70" s="83" t="s">
         <v>22</v>
       </c>
       <c r="F70" s="96"/>
@@ -2924,11 +3034,11 @@
       <c r="H70" s="61"/>
       <c r="I70" s="62"/>
       <c r="J70" s="63"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="47"/>
       <c r="B71" s="47"/>
       <c r="C71" s="7" t="s">
@@ -2937,17 +3047,17 @@
       <c r="D71" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="71"/>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="73"/>
-      <c r="J71" s="73"/>
-      <c r="K71" s="84"/>
-      <c r="L71" s="84"/>
-      <c r="M71" s="84"/>
-    </row>
-    <row r="72" spans="1:13" ht="33" customHeight="1">
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+    </row>
+    <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="47"/>
       <c r="C72" s="3" t="s">
@@ -2962,19 +3072,19 @@
       <c r="F72" s="98"/>
       <c r="G72" s="98"/>
       <c r="H72" s="99" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I72" s="99"/>
       <c r="J72" s="99"/>
-      <c r="K72" s="104" t="s">
-        <v>92</v>
-      </c>
-      <c r="L72" s="104"/>
-      <c r="M72" s="104"/>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="K72" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="L72" s="101"/>
+      <c r="M72" s="101"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B73" s="47"/>
       <c r="C73" s="3" t="s">
@@ -2983,17 +3093,17 @@
       <c r="D73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="71"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71"/>
-      <c r="H73" s="73"/>
-      <c r="I73" s="73"/>
-      <c r="J73" s="73"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="E73" s="86"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="68"/>
+      <c r="J73" s="68"/>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="47"/>
       <c r="C74" s="3" t="s">
@@ -3002,17 +3112,17 @@
       <c r="D74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="73"/>
-      <c r="J74" s="73"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="84"/>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="E74" s="86"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="47"/>
       <c r="C75" s="3" t="s">
@@ -3021,17 +3131,17 @@
       <c r="D75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="100"/>
-      <c r="F75" s="101"/>
-      <c r="G75" s="102"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="E75" s="105"/>
+      <c r="F75" s="106"/>
+      <c r="G75" s="107"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="47"/>
       <c r="C76" s="7" t="s">
@@ -3040,17 +3150,17 @@
       <c r="D76" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="71"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="73"/>
-      <c r="K76" s="84"/>
-      <c r="L76" s="84"/>
-      <c r="M76" s="84"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="E76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="79"/>
+      <c r="L76" s="79"/>
+      <c r="M76" s="79"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
       <c r="B77" s="47"/>
       <c r="C77" s="3" t="s">
@@ -3059,25 +3169,25 @@
       <c r="D77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" s="95"/>
-      <c r="J77" s="95"/>
-      <c r="K77" s="103" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" s="103"/>
-      <c r="M77" s="103"/>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="E77" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
+      <c r="K77" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="100"/>
+      <c r="M77" s="100"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B78" s="47"/>
       <c r="C78" s="3" t="s">
@@ -3086,17 +3196,17 @@
       <c r="D78" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="89"/>
-      <c r="F78" s="89"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="95"/>
-      <c r="K78" s="103"/>
-      <c r="L78" s="103"/>
-      <c r="M78" s="103"/>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="100"/>
+      <c r="L78" s="100"/>
+      <c r="M78" s="100"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="47"/>
       <c r="C79" s="3" t="s">
@@ -3105,17 +3215,17 @@
       <c r="D79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="89"/>
-      <c r="F79" s="89"/>
-      <c r="G79" s="89"/>
-      <c r="H79" s="95"/>
-      <c r="I79" s="95"/>
-      <c r="J79" s="95"/>
-      <c r="K79" s="103"/>
-      <c r="L79" s="103"/>
-      <c r="M79" s="103"/>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+      <c r="K79" s="100"/>
+      <c r="L79" s="100"/>
+      <c r="M79" s="100"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="47"/>
       <c r="B80" s="47"/>
       <c r="C80" s="3" t="s">
@@ -3124,17 +3234,17 @@
       <c r="D80" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="105"/>
-      <c r="F80" s="106"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="95"/>
-      <c r="I80" s="95"/>
-      <c r="J80" s="95"/>
-      <c r="K80" s="103"/>
-      <c r="L80" s="103"/>
-      <c r="M80" s="103"/>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="E80" s="102"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="104"/>
+      <c r="H80" s="92"/>
+      <c r="I80" s="92"/>
+      <c r="J80" s="92"/>
+      <c r="K80" s="100"/>
+      <c r="L80" s="100"/>
+      <c r="M80" s="100"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="47"/>
       <c r="B81" s="47"/>
       <c r="C81" s="7" t="s">
@@ -3143,17 +3253,17 @@
       <c r="D81" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="89"/>
-      <c r="F81" s="89"/>
-      <c r="G81" s="89"/>
-      <c r="H81" s="95"/>
-      <c r="I81" s="95"/>
-      <c r="J81" s="95"/>
-      <c r="K81" s="103"/>
-      <c r="L81" s="103"/>
-      <c r="M81" s="103"/>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="81"/>
+      <c r="H81" s="92"/>
+      <c r="I81" s="92"/>
+      <c r="J81" s="92"/>
+      <c r="K81" s="100"/>
+      <c r="L81" s="100"/>
+      <c r="M81" s="100"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="47"/>
       <c r="B82" s="47"/>
       <c r="C82" s="3" t="s">
@@ -3162,25 +3272,25 @@
       <c r="D82" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="89"/>
-      <c r="G82" s="89"/>
-      <c r="H82" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="I82" s="95"/>
-      <c r="J82" s="95"/>
-      <c r="K82" s="103" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" s="103"/>
-      <c r="M82" s="103"/>
-    </row>
-    <row r="83" spans="1:13" ht="15" customHeight="1">
+      <c r="E82" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="81"/>
+      <c r="G82" s="81"/>
+      <c r="H82" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="I82" s="92"/>
+      <c r="J82" s="92"/>
+      <c r="K82" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="100"/>
+      <c r="M82" s="100"/>
+    </row>
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="108" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B83" s="109"/>
       <c r="C83" s="3" t="s">
@@ -3189,17 +3299,17 @@
       <c r="D83" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="73"/>
-      <c r="I83" s="73"/>
-      <c r="J83" s="73"/>
-      <c r="K83" s="84"/>
-      <c r="L83" s="84"/>
-      <c r="M83" s="84"/>
-    </row>
-    <row r="84" spans="1:13" ht="15" customHeight="1">
+      <c r="E83" s="86"/>
+      <c r="F83" s="86"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="79"/>
+    </row>
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="110"/>
       <c r="B84" s="111"/>
       <c r="C84" s="3" t="s">
@@ -3208,17 +3318,17 @@
       <c r="D84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="73"/>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
-      <c r="M84" s="84"/>
-    </row>
-    <row r="85" spans="1:13" ht="15" customHeight="1">
+      <c r="E84" s="86"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="68"/>
+      <c r="I84" s="68"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
+      <c r="M84" s="79"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="110"/>
       <c r="B85" s="111"/>
       <c r="C85" s="3" t="s">
@@ -3227,17 +3337,17 @@
       <c r="D85" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="100"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="73"/>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73"/>
-      <c r="K85" s="84"/>
-      <c r="L85" s="84"/>
-      <c r="M85" s="84"/>
-    </row>
-    <row r="86" spans="1:13" ht="15" customHeight="1">
+      <c r="E85" s="105"/>
+      <c r="F85" s="106"/>
+      <c r="G85" s="107"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="68"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="79"/>
+      <c r="L85" s="79"/>
+      <c r="M85" s="79"/>
+    </row>
+    <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="110"/>
       <c r="B86" s="111"/>
       <c r="C86" s="7" t="s">
@@ -3246,17 +3356,17 @@
       <c r="D86" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="73"/>
-      <c r="I86" s="73"/>
-      <c r="J86" s="73"/>
-      <c r="K86" s="84"/>
-      <c r="L86" s="84"/>
-      <c r="M86" s="84"/>
-    </row>
-    <row r="87" spans="1:13" ht="15" customHeight="1">
+      <c r="E86" s="86"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="68"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
+      <c r="M86" s="79"/>
+    </row>
+    <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="112"/>
       <c r="B87" s="113"/>
       <c r="C87" s="3" t="s">
@@ -3265,21 +3375,21 @@
       <c r="D87" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" s="89"/>
-      <c r="G87" s="89"/>
-      <c r="H87" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87" s="95"/>
-      <c r="J87" s="95"/>
-      <c r="K87" s="103" t="s">
-        <v>22</v>
-      </c>
-      <c r="L87" s="103"/>
-      <c r="M87" s="103"/>
+      <c r="E87" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="92" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="92"/>
+      <c r="J87" s="92"/>
+      <c r="K87" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="100"/>
+      <c r="M87" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="263">
@@ -3548,6 +3658,7 @@
     <mergeCell ref="E30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Daily Meetings Mis a jour.xlsx
+++ b/Daily Meetings Mis a jour.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="123">
   <si>
     <t>Mardi 11-02-2014</t>
   </si>
@@ -712,7 +712,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -736,298 +736,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,32 +862,183 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1351,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68:G68"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87:J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,2049 +1341,2282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18" t="s">
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
     </row>
     <row r="8" spans="1:13" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="35" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="68"/>
+      <c r="M8" s="69"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="32" t="s">
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="14" t="s">
+      <c r="I9" s="74"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
     </row>
     <row r="10" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29" t="s">
+      <c r="E10" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="79"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="11" t="s">
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
     </row>
     <row r="11" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29" t="s">
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="11" t="s">
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
     </row>
     <row r="12" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="29" t="s">
+      <c r="E12" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
     </row>
     <row r="13" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="88"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="68"/>
+      <c r="M13" s="69"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="32" t="s">
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="14" t="s">
+      <c r="I14" s="74"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="77"/>
     </row>
     <row r="15" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="s">
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="38" t="s">
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="12"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
     </row>
     <row r="16" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="32" t="s">
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="76"/>
+      <c r="M17" s="77"/>
     </row>
     <row r="18" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="29" t="s">
+      <c r="E18" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="11" t="s">
+      <c r="I18" s="63"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="83"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="32" t="s">
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="14" t="s">
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="77"/>
     </row>
     <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="38" t="s">
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="83"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44" t="s">
+      <c r="E21" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="94"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="39" t="s">
+      <c r="I21" s="97"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="100"/>
     </row>
     <row r="22" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29" t="s">
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="11" t="s">
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="12"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="83"/>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="74"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="76"/>
+      <c r="M23" s="77"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="32" t="s">
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="14" t="s">
+      <c r="I24" s="74"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
     </row>
     <row r="25" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="63"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="68"/>
+      <c r="M25" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="88"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="68"/>
+      <c r="M26" s="69"/>
     </row>
     <row r="27" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="32" t="s">
+      <c r="F27" s="71"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="11" t="s">
+      <c r="I27" s="74"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="12"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="83"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
+      <c r="E28" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="71"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="74"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="76"/>
+      <c r="M28" s="77"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="32" t="s">
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="14" t="s">
+      <c r="I29" s="74"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="77"/>
     </row>
     <row r="30" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
+      <c r="E30" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="88"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="68"/>
+      <c r="M30" s="69"/>
     </row>
     <row r="31" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="9" t="s">
+      <c r="E31" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="63"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="69"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="32" t="s">
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="14" t="s">
+      <c r="I32" s="74"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="77"/>
     </row>
     <row r="33" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="29" t="s">
+      <c r="E33" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="9" t="s">
+      <c r="I33" s="63"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="69"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="32" t="s">
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="14" t="s">
+      <c r="I34" s="74"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="77"/>
     </row>
     <row r="35" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="29" t="s">
+      <c r="E35" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="9" t="s">
+      <c r="I35" s="63"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="69"/>
     </row>
     <row r="36" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="35" t="s">
+      <c r="E36" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="79"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="11" t="s">
+      <c r="I36" s="88"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="L36" s="11"/>
-      <c r="M36" s="12"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="83"/>
     </row>
     <row r="37" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29" t="s">
+      <c r="F37" s="79"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="11" t="s">
+      <c r="I37" s="63"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="L37" s="11"/>
-      <c r="M37" s="12"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="83"/>
     </row>
     <row r="38" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="47"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="29" t="s">
+      <c r="F38" s="60"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="9" t="s">
+      <c r="I38" s="63"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="10"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="69"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="32" t="s">
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="14" t="s">
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77"/>
     </row>
     <row r="40" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29" t="s">
+      <c r="F40" s="79"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="38" t="s">
+      <c r="I40" s="63"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="L40" s="11"/>
-      <c r="M40" s="12"/>
+      <c r="L40" s="82"/>
+      <c r="M40" s="83"/>
     </row>
     <row r="41" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29" t="s">
+      <c r="F41" s="79"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="11" t="s">
+      <c r="I41" s="63"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="L41" s="11"/>
-      <c r="M41" s="12"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="83"/>
     </row>
     <row r="42" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="29" t="s">
+      <c r="F42" s="66"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="51" t="s">
+      <c r="I42" s="63"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="L42" s="51"/>
-      <c r="M42" s="52"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="85"/>
     </row>
     <row r="43" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="47"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="114" t="s">
+      <c r="E43" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="114"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="115" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="116"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" s="119"/>
-      <c r="M43" s="120"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="110" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="111"/>
+      <c r="M43" s="112"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="58" t="s">
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="I44" s="59"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="70" t="s">
+      <c r="I44" s="108"/>
+      <c r="J44" s="109"/>
+      <c r="K44" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="L44" s="71"/>
-      <c r="M44" s="72"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="48"/>
     </row>
     <row r="45" spans="1:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="61" t="s">
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L45" s="74"/>
-      <c r="M45" s="75"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="37"/>
+      <c r="M45" s="38"/>
     </row>
     <row r="46" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="55" t="s">
+      <c r="E46" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="62"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="72"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="51"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="48"/>
     </row>
     <row r="47" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="61" t="s">
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="62"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L47" s="74"/>
-      <c r="M47" s="75"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="37"/>
+      <c r="M47" s="38"/>
     </row>
     <row r="48" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="47"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="121" t="s">
+      <c r="E48" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="122"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="77"/>
-      <c r="M48" s="78"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="30"/>
+      <c r="M48" s="31"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="53" t="s">
+      <c r="E49" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="58" t="s">
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="I49" s="59"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="70" t="s">
+      <c r="I49" s="108"/>
+      <c r="J49" s="109"/>
+      <c r="K49" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="L49" s="71"/>
-      <c r="M49" s="72"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="48"/>
     </row>
     <row r="50" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="55" t="s">
+      <c r="E50" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="56"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="66"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L50" s="77"/>
-      <c r="M50" s="78"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="43"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="30"/>
+      <c r="M50" s="31"/>
     </row>
     <row r="51" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="56"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="58"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="72"/>
+      <c r="E51" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="105"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="48"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="64" t="s">
+      <c r="E52" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="66"/>
-      <c r="J52" s="67"/>
-      <c r="K52" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L52" s="77"/>
-      <c r="M52" s="78"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="57"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="30"/>
+      <c r="M52" s="31"/>
     </row>
     <row r="53" spans="1:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="47"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="114" t="s">
+      <c r="E53" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="114"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="124" t="s">
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="I53" s="124"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="100" t="s">
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="L53" s="100"/>
-      <c r="M53" s="100"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="86" t="s">
+      <c r="E54" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="68" t="s">
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="79" t="s">
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
     </row>
     <row r="55" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="61" t="s">
+      <c r="E55" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="105"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="I55" s="62"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" s="74"/>
-      <c r="M55" s="75"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="37"/>
+      <c r="M55" s="38"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="69" t="s">
+      <c r="E57" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
+      <c r="I57" s="119"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
     </row>
     <row r="58" spans="1:13" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="47"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="114" t="s">
+      <c r="E58" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F58" s="114"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="125" t="s">
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="I58" s="125"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="101" t="s">
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="L58" s="101"/>
-      <c r="M58" s="101"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="86" t="s">
+      <c r="E59" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="68" t="s">
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="79" t="s">
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="93" t="s">
+      <c r="E60" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="94"/>
-      <c r="G60" s="95"/>
-      <c r="H60" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" s="62"/>
-      <c r="J60" s="63"/>
-      <c r="K60" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="L60" s="74"/>
-      <c r="M60" s="75"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="51"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="37"/>
+      <c r="M60" s="38"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
+      <c r="A62" s="24"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="82" t="s">
+      <c r="E62" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="I62" s="82"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="88" t="s">
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
     </row>
     <row r="63" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47" t="s">
+      <c r="A63" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="47"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="126" t="s">
+      <c r="E63" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="125" t="s">
-        <v>122</v>
-      </c>
-      <c r="I63" s="125"/>
-      <c r="J63" s="125"/>
-      <c r="K63" s="88" t="s">
-        <v>119</v>
-      </c>
-      <c r="L63" s="88"/>
-      <c r="M63" s="88"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E64" s="86" t="s">
+      <c r="E64" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="68" t="s">
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="79" t="s">
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="L64" s="79"/>
-      <c r="M64" s="79"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="90"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" s="66"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="L65" s="77"/>
-      <c r="M65" s="78"/>
+      <c r="E65" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="117"/>
+      <c r="G65" s="118"/>
+      <c r="H65" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="57"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="30"/>
+      <c r="M65" s="31"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="79"/>
-      <c r="M66" s="79"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="81" t="s">
+      <c r="E67" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
-      <c r="K67" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="L67" s="100"/>
-      <c r="M67" s="100"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
     </row>
     <row r="68" spans="1:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="47"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="79"/>
-      <c r="M68" s="79"/>
+      <c r="E68" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
+      <c r="A69" s="24"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="86" t="s">
+      <c r="E69" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="F69" s="86"/>
-      <c r="G69" s="86"/>
-      <c r="H69" s="68" t="s">
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="79" t="s">
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="L69" s="79"/>
-      <c r="M69" s="79"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
     </row>
     <row r="70" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
+      <c r="A70" s="24"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E70" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="96"/>
-      <c r="G70" s="97"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="63"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="79"/>
-      <c r="M70" s="79"/>
+      <c r="E70" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="105"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
+      <c r="A71" s="24"/>
+      <c r="B71" s="24"/>
       <c r="C71" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="68"/>
-      <c r="I71" s="68"/>
-      <c r="J71" s="68"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="79"/>
-      <c r="M71" s="79"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
     </row>
     <row r="72" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47"/>
+      <c r="A72" s="24"/>
+      <c r="B72" s="24"/>
       <c r="C72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="98"/>
-      <c r="G72" s="98"/>
-      <c r="H72" s="99" t="s">
+      <c r="E72" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="I72" s="99"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="101" t="s">
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="L72" s="101"/>
-      <c r="M72" s="101"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="47" t="s">
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+    </row>
+    <row r="73" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="47"/>
+      <c r="B73" s="24"/>
       <c r="C73" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="86"/>
-      <c r="F73" s="86"/>
-      <c r="G73" s="86"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="79"/>
-      <c r="M73" s="79"/>
+      <c r="E73" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="45"/>
+      <c r="J73" s="45"/>
+      <c r="K73" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="86"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="79"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E75" s="105"/>
-      <c r="F75" s="106"/>
-      <c r="G75" s="107"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="79"/>
-      <c r="M75" s="79"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="47"/>
-      <c r="B76" s="47"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="86"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="79"/>
-      <c r="M76" s="79"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="47"/>
-      <c r="B77" s="47"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77" s="81"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" s="92"/>
-      <c r="J77" s="92"/>
-      <c r="K77" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="L77" s="100"/>
-      <c r="M77" s="100"/>
+      <c r="E77" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L77" s="103"/>
+      <c r="M77" s="103"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="47"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
-      <c r="H78" s="92"/>
-      <c r="I78" s="92"/>
-      <c r="J78" s="92"/>
-      <c r="K78" s="100"/>
-      <c r="L78" s="100"/>
-      <c r="M78" s="100"/>
+      <c r="E78" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="103"/>
+      <c r="M78" s="103"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="81"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="81"/>
-      <c r="H79" s="92"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="92"/>
-      <c r="K79" s="100"/>
-      <c r="L79" s="100"/>
-      <c r="M79" s="100"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E80" s="102"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="104"/>
-      <c r="H80" s="92"/>
-      <c r="I80" s="92"/>
-      <c r="J80" s="92"/>
-      <c r="K80" s="100"/>
-      <c r="L80" s="100"/>
-      <c r="M80" s="100"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="81"/>
-      <c r="F81" s="81"/>
-      <c r="G81" s="81"/>
-      <c r="H81" s="92"/>
-      <c r="I81" s="92"/>
-      <c r="J81" s="92"/>
-      <c r="K81" s="100"/>
-      <c r="L81" s="100"/>
-      <c r="M81" s="100"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47"/>
+      <c r="A82" s="24"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E82" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82" s="81"/>
-      <c r="G82" s="81"/>
-      <c r="H82" s="92" t="s">
+      <c r="E82" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="I82" s="92"/>
-      <c r="J82" s="92"/>
-      <c r="K82" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="L82" s="100"/>
-      <c r="M82" s="100"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="108" t="s">
+      <c r="A83" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B83" s="109"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="86"/>
-      <c r="F83" s="86"/>
-      <c r="G83" s="86"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="79"/>
-      <c r="L83" s="79"/>
-      <c r="M83" s="79"/>
+      <c r="E83" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="28"/>
+      <c r="M83" s="28"/>
     </row>
     <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="110"/>
-      <c r="B84" s="111"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="86"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="86"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="79"/>
-      <c r="L84" s="79"/>
-      <c r="M84" s="79"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
     </row>
     <row r="85" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="110"/>
-      <c r="B85" s="111"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E85" s="105"/>
-      <c r="F85" s="106"/>
-      <c r="G85" s="107"/>
-      <c r="H85" s="68"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="68"/>
-      <c r="K85" s="79"/>
-      <c r="L85" s="79"/>
-      <c r="M85" s="79"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
     </row>
     <row r="86" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="110"/>
-      <c r="B86" s="111"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E86" s="86"/>
-      <c r="F86" s="86"/>
-      <c r="G86" s="86"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="79"/>
-      <c r="L86" s="79"/>
-      <c r="M86" s="79"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
     </row>
     <row r="87" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="112"/>
-      <c r="B87" s="113"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" s="81"/>
-      <c r="G87" s="81"/>
-      <c r="H87" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="I87" s="92"/>
-      <c r="J87" s="92"/>
-      <c r="K87" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="L87" s="100"/>
-      <c r="M87" s="100"/>
+      <c r="E87" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="263">
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="A83:B87"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="B1:K4"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="A33:B37"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="A28:B32"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A23:B27"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="A18:B22"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A13:B17"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="H5:J7"/>
+    <mergeCell ref="K5:M7"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="A8:B12"/>
+    <mergeCell ref="A38:B42"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="A43:B47"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="A48:B52"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="A53:B57"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="A63:B67"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="A58:B62"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="A68:B72"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="K77:M77"/>
     <mergeCell ref="K78:M78"/>
     <mergeCell ref="K79:M79"/>
     <mergeCell ref="K80:M80"/>
@@ -3432,230 +3641,21 @@
     <mergeCell ref="E76:G76"/>
     <mergeCell ref="E77:G77"/>
     <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="A68:B72"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="K62:M62"/>
-    <mergeCell ref="A53:B57"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="A63:B67"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="A58:B62"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="A48:B52"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="A43:B47"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="A38:B42"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E5:G7"/>
-    <mergeCell ref="H5:J7"/>
-    <mergeCell ref="K5:M7"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="A8:B12"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A13:B17"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="A18:B22"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A23:B27"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="B1:K4"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="A33:B37"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="A28:B32"/>
-    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="A83:B87"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
